--- a/docs/ai-product-wizard.xlsx
+++ b/docs/ai-product-wizard.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\3-Projects\ai-product-wizard\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471304E9-59EF-497F-BFB6-03DDE92FA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCD5AE2-7CEB-46B8-81B7-6FB3FA15B83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="741" activeTab="1" xr2:uid="{13E4E61E-9BFB-4F32-B2C3-63E7FBDEDCAC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="741" activeTab="4" xr2:uid="{13E4E61E-9BFB-4F32-B2C3-63E7FBDEDCAC}"/>
   </bookViews>
   <sheets>
     <sheet name="TechArch" sheetId="12" r:id="rId1"/>
     <sheet name="Repo" sheetId="11" r:id="rId2"/>
-    <sheet name="RepoRules" sheetId="13" r:id="rId3"/>
-    <sheet name="Roles" sheetId="3" r:id="rId4"/>
-    <sheet name="Glossary" sheetId="4" r:id="rId5"/>
-    <sheet name="Blueprint" sheetId="8" r:id="rId6"/>
-    <sheet name="Build plan with prompts" sheetId="10" r:id="rId7"/>
-    <sheet name="JSON" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId9"/>
+    <sheet name="Roles" sheetId="3" r:id="rId3"/>
+    <sheet name="AgS ArchVis" sheetId="14" r:id="rId4"/>
+    <sheet name="RepoRules" sheetId="13" r:id="rId5"/>
+    <sheet name="Glossary" sheetId="4" r:id="rId6"/>
+    <sheet name="Blueprint" sheetId="8" r:id="rId7"/>
+    <sheet name="Build plan with prompts" sheetId="10" r:id="rId8"/>
+    <sheet name="JSON" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Blueprint!$G$1:$G$761</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Blueprint!$G$1:$G$761</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Repo!$A$1:$D$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6873" uniqueCount="4225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7078" uniqueCount="4416">
   <si>
     <t>Responsibilities:</t>
   </si>
@@ -15892,12 +15893,752 @@
       <t xml:space="preserve"> should remain the primary definition of the local stack. New services should be added there and profiles (dev, ci, etc.) should be used instead of multiple compose files.</t>
     </r>
   </si>
+  <si>
+    <t># ai-product-wizard – Agentic sub-System Architecture</t>
+  </si>
+  <si>
+    <t>## 1. Purpose and Scope</t>
+  </si>
+  <si>
+    <t>This document is the authoritative reference for:</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>## 2. High‑Level Principles</t>
+  </si>
+  <si>
+    <t>## 3. Document Chain (Authoritative Order)</t>
+  </si>
+  <si>
+    <t>| Order | Document                            | Agent Name                   |</t>
+  </si>
+  <si>
+    <t>| ----- | ----------------------------------- | ---------------------------- |</t>
+  </si>
+  <si>
+    <t>| 1     | Discovery Document                  | agent-pm-product-manager     |</t>
+  </si>
+  <si>
+    <t>| 2     | Product Definition Document         | agent-pm-product-owner       |</t>
+  </si>
+  <si>
+    <t>| 3     | Product Requirements Document       | agent-pm-business-analyst    |</t>
+  </si>
+  <si>
+    <t>| 4     | Experience Specification Document   | agent-pm-ux-designer         |</t>
+  </si>
+  <si>
+    <t>| 5     | User Interface System Specification | agent-pm-ui-architect        |</t>
+  </si>
+  <si>
+    <t>| 6     | Technical Architecture Document     | agent-pm-technical-architect |</t>
+  </si>
+  <si>
+    <t>| 7     | Delivery Plan Document              | agent-pm-delivery-manager    |</t>
+  </si>
+  <si>
+    <t>| 8     | Test Plan Document                  | agent-pm-qa-engineer         |</t>
+  </si>
+  <si>
+    <t>| 9     | Deployment &amp; Launch Plan            | agent-pm-devops-engineer     |</t>
+  </si>
+  <si>
+    <t>## 4. Core Roles</t>
+  </si>
+  <si>
+    <t>### 4.1 PM Orchestrator Agent</t>
+  </si>
+  <si>
+    <t>**Responsibilities:**</t>
+  </si>
+  <si>
+    <t>The PM Orchestrator never authors document content directly.</t>
+  </si>
+  <si>
+    <t>### 4.2 Document PM Agents</t>
+  </si>
+  <si>
+    <t>Each document is produced by a dedicated PM agent with:</t>
+  </si>
+  <si>
+    <t>## 5. System Prompt Architecture</t>
+  </si>
+  <si>
+    <t>### 5.1 Shared System Prompt Core (All Agents)</t>
+  </si>
+  <si>
+    <t>All agents inherit a shared prompt core that defines:</t>
+  </si>
+  <si>
+    <t>### 5.2 Document‑Specific Inserts</t>
+  </si>
+  <si>
+    <t>Each document agent injects:</t>
+  </si>
+  <si>
+    <t>## 6. LangGraph State Model</t>
+  </si>
+  <si>
+    <t>### 6.1 Graph State (Short‑Term)</t>
+  </si>
+  <si>
+    <t>The LangGraph state passed between nodes contains:</t>
+  </si>
+  <si>
+    <t>### 6.2 Long‑Term Storage</t>
+  </si>
+  <si>
+    <t>## 7. Agent Input Contract</t>
+  </si>
+  <si>
+    <t>Each document agent receives a single structured object derived from the graph state, including:</t>
+  </si>
+  <si>
+    <t>Agents must not infer missing inputs; gaps must surface as open questions.</t>
+  </si>
+  <si>
+    <t>## 8. Agent Output Contract (Canonical JSON)</t>
+  </si>
+  <si>
+    <t>Each agent must return:</t>
+  </si>
+  <si>
+    <t>No free‑text outside JSON is allowed.</t>
+  </si>
+  <si>
+    <t>## 9. Document Schemas</t>
+  </si>
+  <si>
+    <t>Each document agent defines:</t>
+  </si>
+  <si>
+    <t>Schemas are versioned independently of content.</t>
+  </si>
+  <si>
+    <t>## 10. Toolbelt (Shared)</t>
+  </si>
+  <si>
+    <t>Implemented once, reused by all agents:</t>
+  </si>
+  <si>
+    <t>Core tools:</t>
+  </si>
+  <si>
+    <t>Quality tools:</t>
+  </si>
+  <si>
+    <t>Rendering tools (non‑agent):</t>
+  </si>
+  <si>
+    <t>## 11. Validation and Guardrails</t>
+  </si>
+  <si>
+    <t>### 11.1 Schema Validation</t>
+  </si>
+  <si>
+    <t>### 11.2 Product Consistency Validation</t>
+  </si>
+  <si>
+    <t>Validation failure forces:</t>
+  </si>
+  <si>
+    <t>## 12. Iteration Loop (Per Agent)</t>
+  </si>
+  <si>
+    <t>Standard loop enforced by graph:</t>
+  </si>
+  <si>
+    <t>Agents must keep unchanged sections stable unless a correction requires modification.</t>
+  </si>
+  <si>
+    <t>## 13. Handoff Contract</t>
+  </si>
+  <si>
+    <t>Also include:</t>
+  </si>
+  <si>
+    <t>## 14. LangGraph Node Structure</t>
+  </si>
+  <si>
+    <t>Each document agent is implemented as a subgraph with:</t>
+  </si>
+  <si>
+    <t>Conditional edges:</t>
+  </si>
+  <si>
+    <t>## 15. Extensibility and Future Compliance</t>
+  </si>
+  <si>
+    <t>The architecture explicitly supports:</t>
+  </si>
+  <si>
+    <t>No compliance logic is active by default, but all extension points are defined.</t>
+  </si>
+  <si>
+    <t>## 16. Non‑Goals</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This document defines the end‑to‑end architecture for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**AI Product Wizard**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, an agentic system built with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**LangChain**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**LangGraph**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> that produces a complete, near‑spec product documentation set for a single digital product.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system guides a user from an initial idea through nine strictly sequential product documents, using specialized AI agents coordinated by a central PM Orchestrator. The output is designed to be directly usable for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**VibeCoding‑driven product development**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>- Agent responsibilities and boundaries</t>
+  </si>
+  <si>
+    <t>- State, memory, and iteration model</t>
+  </si>
+  <si>
+    <t>- LangGraph workflow structure</t>
+  </si>
+  <si>
+    <t>- Contracts between agents</t>
+  </si>
+  <si>
+    <t>- Validation and human‑in‑the‑loop (HITL) rules</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**Single Product, Single Thread**</t>
+    </r>
+  </si>
+  <si>
+    <t>   - One LangGraph thread\_id equals one product.</t>
+  </si>
+  <si>
+    <t>   - All documents belong to the same immutable product context.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**Strict Sequential Progression**</t>
+    </r>
+  </si>
+  <si>
+    <t>   - Documents are produced in a fixed order.</t>
+  </si>
+  <si>
+    <t>   - Advancement requires explicit user approval and passing validation gates.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**Canonical JSON First**</t>
+    </r>
+  </si>
+  <si>
+    <t>   - Agents output strict JSON only.</t>
+  </si>
+  <si>
+    <t>   - Markdown, DOCX, and PDF by user request are generated by deterministic renderer tools.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**LLM‑Agnostic and Resource‑Efficient**</t>
+    </r>
+  </si>
+  <si>
+    <t>   - Structured outputs and schemas are mandatory.</t>
+  </si>
+  <si>
+    <t>   - No reliance on model‑specific formatting or reasoning artifacts.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**Human‑in‑the‑Loop by Design**</t>
+    </r>
+  </si>
+  <si>
+    <t>   - Missing inputs, conflicts, user corrections, new user inputs and user approvals pause execution via LangGraph interrupts.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**Unified terminology**</t>
+    </r>
+  </si>
+  <si>
+    <t>   - All documents share one common glossary of terms.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each agent owns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>**exactly one document**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> and cannot modify upstream documents.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**Agent name:**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> `agent-pm-orchestrator`</t>
+    </r>
+  </si>
+  <si>
+    <t>- Owns the LangGraph workflow</t>
+  </si>
+  <si>
+    <t>- Controls document progression and stage gates</t>
+  </si>
+  <si>
+    <t>- Enforces required user input</t>
+  </si>
+  <si>
+    <t>- Maintains global consistency and decision log</t>
+  </si>
+  <si>
+    <t>- Dispatches work to document agents</t>
+  </si>
+  <si>
+    <t>- Blocks advancement on validation or approval failure</t>
+  </si>
+  <si>
+    <t>- Narrow scope (single document)</t>
+  </si>
+  <si>
+    <t>- Read‑only access to upstream docs</t>
+  </si>
+  <si>
+    <t>- Authority only over its own document</t>
+  </si>
+  <si>
+    <t>- Role goals, boundaries and non‑goals</t>
+  </si>
+  <si>
+    <t>- Authority of upstream documents</t>
+  </si>
+  <si>
+    <t>- Requirement for explicit assumptions and open questions</t>
+  </si>
+  <si>
+    <t>- Prohibition on silent invention</t>
+  </si>
+  <si>
+    <t>- Requirement to output valid JSON only</t>
+  </si>
+  <si>
+    <t>- Document name and purpose</t>
+  </si>
+  <si>
+    <t>- Allowed scope and forbidden scope</t>
+  </si>
+  <si>
+    <t>- Required upstream dependencies</t>
+  </si>
+  <si>
+    <t>- Document‑specific quality rules</t>
+  </si>
+  <si>
+    <t>- product\_brief (optional seed)</t>
+  </si>
+  <si>
+    <t>- user\_messages (chronological)</t>
+  </si>
+  <si>
+    <t>- global\_constraints (brand, legal, tech, timeline)</t>
+  </si>
+  <si>
+    <t>- upstream\_docs (doc\_name → version, content, decisions)</t>
+  </si>
+  <si>
+    <t>- current\_doc (latest version, if iterating)</t>
+  </si>
+  <si>
+    <t>- corrections (mapped to section\_ids or anchors)</t>
+  </si>
+  <si>
+    <t>- open\_questions\_backlog</t>
+  </si>
+  <si>
+    <t>- decisions\_log</t>
+  </si>
+  <si>
+    <t>- artifacts\_index (references only, no blobs)</t>
+  </si>
+  <si>
+    <t>- current\_stage (1–9)</t>
+  </si>
+  <si>
+    <t>- Immutable document versions</t>
+  </si>
+  <si>
+    <t>- Decision log (append‑only)</t>
+  </si>
+  <si>
+    <t>- Correction bindings (correction\_id → section\_id / anchor)</t>
+  </si>
+  <si>
+    <t>- Latest user input</t>
+  </si>
+  <si>
+    <t>- All upstream documents (authoritative)</t>
+  </si>
+  <si>
+    <t>- Explicit user corrections</t>
+  </si>
+  <si>
+    <t>- Open questions backlog</t>
+  </si>
+  <si>
+    <t>- Decisions log</t>
+  </si>
+  <si>
+    <t>- doc\_name</t>
+  </si>
+  <si>
+    <t>- version (incremented)</t>
+  </si>
+  <si>
+    <t>- status: draft | needs\_user\_input | final\_candidate</t>
+  </si>
+  <si>
+    <t>- content (document‑specific schema)</t>
+  </si>
+  <si>
+    <t>- assumptions[]</t>
+  </si>
+  <si>
+    <t>- open\_questions[] (id, question, why\_it\_matters, options)</t>
+  </si>
+  <si>
+    <t>- risks[] (risk, impact, mitigation)</t>
+  </si>
+  <si>
+    <t>- dependencies (for downstream agents)</t>
+  </si>
+  <si>
+    <t>- downstream\_notes (mandatory handoff)</t>
+  </si>
+  <si>
+    <t>- change\_log (diff summary)</t>
+  </si>
+  <si>
+    <t>- evidence[] (uploads, web, user inputs used)</t>
+  </si>
+  <si>
+    <t>- immutable\_inputs (upstream versions, sources)</t>
+  </si>
+  <si>
+    <t>- validation (passed | failed + issues[])</t>
+  </si>
+  <si>
+    <t>- stage\_gate (can\_advance, blocking\_issues[])</t>
+  </si>
+  <si>
+    <t>- content\_schema (sections and required fields)</t>
+  </si>
+  <si>
+    <t>- stable section\_ids</t>
+  </si>
+  <si>
+    <t>- acceptance\_criteria (what “done” means)</t>
+  </si>
+  <si>
+    <t>- measurability rules (where applicable)</t>
+  </si>
+  <si>
+    <t>- read\_state</t>
+  </si>
+  <si>
+    <t>- write\_doc</t>
+  </si>
+  <si>
+    <t>- diff\_docs</t>
+  </si>
+  <si>
+    <t>- validate</t>
+  </si>
+  <si>
+    <t>- ask\_user (interrupt)</t>
+  </si>
+  <si>
+    <t>- consistency\_check</t>
+  </si>
+  <si>
+    <t>- traceability\_map</t>
+  </si>
+  <si>
+    <t>- prioritize\_open\_questions</t>
+  </si>
+  <si>
+    <t>- render\_markdown</t>
+  </si>
+  <si>
+    <t>- render\_docx</t>
+  </si>
+  <si>
+    <t>- render\_pdf</t>
+  </si>
+  <si>
+    <t>- Required fields present</t>
+  </si>
+  <si>
+    <t>- Enums and section\_ids valid</t>
+  </si>
+  <si>
+    <t>- No conflicts with upstream decisions</t>
+  </si>
+  <si>
+    <t>- Terminology alignment</t>
+  </si>
+  <si>
+    <t>- Measurable requirements where required</t>
+  </si>
+  <si>
+    <t>- Unknowns captured explicitly as open questions</t>
+  </si>
+  <si>
+    <t>- status = needs\_user\_input OR</t>
+  </si>
+  <si>
+    <t>- validation = failed</t>
+  </si>
+  <si>
+    <t>1. Load context</t>
+  </si>
+  <si>
+    <t>2. Request additional information from user</t>
+  </si>
+  <si>
+    <t>3. Draft or revise document</t>
+  </si>
+  <si>
+    <t>4. Validate</t>
+  </si>
+  <si>
+    <t>5. If blocked → ask\_user (interrupt)</t>
+  </si>
+  <si>
+    <t>6. Persist version and handoff notes</t>
+  </si>
+  <si>
+    <t>Each agent must emit downstream\_notes containing:</t>
+  </si>
+  <si>
+    <t>- Confirmed decisions</t>
+  </si>
+  <si>
+    <t>- Constraints</t>
+  </si>
+  <si>
+    <t>- Unresolved questions</t>
+  </si>
+  <si>
+    <t>- “Do not change” items</t>
+  </si>
+  <si>
+    <t>- Key entities</t>
+  </si>
+  <si>
+    <t>- Interfaces</t>
+  </si>
+  <si>
+    <t>- Critical flows (even if high‑level)</t>
+  </si>
+  <si>
+    <t>- LoadContextNode</t>
+  </si>
+  <si>
+    <t>- ApplyCorrectionsNode</t>
+  </si>
+  <si>
+    <t>- DraftNode</t>
+  </si>
+  <si>
+    <t>- ValidateNode</t>
+  </si>
+  <si>
+    <t>- PersistNode</t>
+  </si>
+  <si>
+    <t>- HandoffNode</t>
+  </si>
+  <si>
+    <t>- Validate → Draft (fixable)</t>
+  </si>
+  <si>
+    <t>- Validate → Interrupt (needs user input)</t>
+  </si>
+  <si>
+    <t>- Validate → Handoff (success)</t>
+  </si>
+  <si>
+    <t>- Policy hooks for regulated domains</t>
+  </si>
+  <si>
+    <t>- Additional validators</t>
+  </si>
+  <si>
+    <t>- Multi‑model execution</t>
+  </si>
+  <si>
+    <t>- Auditability and traceability</t>
+  </si>
+  <si>
+    <t>- Parallel document generation</t>
+  </si>
+  <si>
+    <t>- Autonomous advancement without user approval</t>
+  </si>
+  <si>
+    <t>- Free‑form narrative outputs</t>
+  </si>
+  <si>
+    <t>- Implicit assumption making</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15984,6 +16725,23 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -16023,7 +16781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -16120,6 +16878,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17361,6 +18129,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45643D14-903F-4797-8D1B-1738C0CE35BC}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:H106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="31.2">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="23.4">
+      <c r="A3" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="23.4">
+      <c r="A10" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="23.4">
+      <c r="A17" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="23.4">
+      <c r="A31" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="23.4">
+      <c r="A44" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18">
+      <c r="A47" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="18">
+      <c r="A54" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="23.4">
+      <c r="A62" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="23.4">
+      <c r="A67" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" t="s">
+        <v>3590</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="H106" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DC3391-4489-41A8-A182-07D5595E30BE}">
   <sheetPr filterMode="1">
@@ -17369,7 +18613,7 @@
   </sheetPr>
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B69" sqref="A2:B69"/>
     </sheetView>
   </sheetViews>
@@ -18373,198 +19617,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D059A-8901-471F-8688-FD6A49681643}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26.5546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.44140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="167.5546875" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="36" t="s">
-        <v>4186</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>4187</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>4188</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>4189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.8">
-      <c r="A2" s="38" t="s">
-        <v>4190</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>4191</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>4192</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8">
-      <c r="A3" s="38" t="s">
-        <v>4194</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>4191</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4195</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8">
-      <c r="A4" s="38" t="s">
-        <v>4197</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>4191</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>4198</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>4199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8">
-      <c r="A5" s="38" t="s">
-        <v>4200</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>4191</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>4201</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="38" t="s">
-        <v>4203</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>4191</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>4204</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>4205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="38" t="s">
-        <v>4206</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>4191</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>4207</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>4208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="38" t="s">
-        <v>4209</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>4210</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>4211</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="38" t="s">
-        <v>4213</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>4191</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>4214</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>4215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="38" t="s">
-        <v>4216</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>4210</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>4217</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>4218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="38" t="s">
-        <v>4219</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>4191</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>4220</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>4221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="38" t="s">
-        <v>4222</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>4210</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>4223</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>4224</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2107E14-FABA-41DF-8C20-5881E1D3CF64}">
   <sheetPr>
+    <tabColor theme="9"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A108"/>
@@ -19123,7 +20178,1558 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30C27CE-2C99-4261-AC03-C773090BA085}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:A310"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="224" style="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="40" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="41"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="40" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="41"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="42" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="41"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="42" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="41"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="42" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="41"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="42" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="42" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="42" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="42" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="42" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="41"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="41"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="40" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="41"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="42" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="41"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="42" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="42" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="41"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="42" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="41"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="42" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="42" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="41"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="42" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="41"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="42" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="42" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="41"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="42" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="41"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="42" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="42" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="41"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="42" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="41"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="42" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="41"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="42" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="41"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="42" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="41"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="41"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="40" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="41"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="42" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="42" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="42" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="42" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="42" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="42" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="42" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="42" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="42" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="42" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="42" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="41"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="42" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="41"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="41"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="40" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="41"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="40" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="41"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="40" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="41"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="40" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="41"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="42" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="42" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="42" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="42" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="42" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="42" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="41"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="42" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="41"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="40" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="41"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="42" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="41"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="42" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="42" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="42" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="41"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="41"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="40" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="41"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="40" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="41"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="42" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="41"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="42" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="42" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="42" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="42" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="42" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="41"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="40" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="41"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="42" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="41"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="42" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="42" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="42" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="42" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="41"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="41"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="40" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="41"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="40" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="41"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="42" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="41"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="42" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="42" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="42" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="42" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="42" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="42" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="42" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="42" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="42" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="42" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="41"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="40" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="41"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="42" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="42" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="42" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="41"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="41"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="40" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="41"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="42" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="41"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="42" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="42" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="42" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="42" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="42" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="41"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="42" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="41"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="41"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="40" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="41"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="42" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="41"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="42" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="42" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="42" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="42" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="42" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="42" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="42" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="42" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="42" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="42" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="42" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="42" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="42" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="42" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="41"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="42" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="41"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="41"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="40" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="41"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="42" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="41"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="42" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="42" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="42" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="42" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="41"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="42" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="41"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="41"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="40" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="41"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="42" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="41"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="42" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="41"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="42" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="42" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="42" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="42" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="42" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="41"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="42" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="41"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="42" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="42" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="42" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="41"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="42" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="41"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="42" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="42" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="42" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="41"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="41"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="40" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="41"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="40" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="41"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="42" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="42" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="41"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="40" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="41"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="42" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="42" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="42" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="42" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="41"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="42" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="41"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="42" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="42" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="41"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="41"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="40" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="41"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="42" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="41"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="42" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="42" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="42" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="42" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="42" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="42" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="41"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="42" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="41"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="41"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="40" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="41"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="42" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="41"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="42" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="42" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="42" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="42" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="41"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="42" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="41"/>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="42" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="42" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="42" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="41"/>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="41"/>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="40" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="41"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="42" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="41"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="42" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="42" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="42" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="42" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="42" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="42" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="41"/>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="42" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="41"/>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="42" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="42" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="42" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="41"/>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="41"/>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="40" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="41"/>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="42" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="41"/>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="42" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="42" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="42" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="42" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="41"/>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="42" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="41"/>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="42" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="41"/>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="40" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="41"/>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="42" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="42" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="42" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="42" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D059A-8901-471F-8688-FD6A49681643}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="167.5546875" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="36" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>4187</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>4188</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8">
+      <c r="A2" s="38" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4192</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8">
+      <c r="A3" s="38" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4195</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8">
+      <c r="A4" s="38" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4198</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8">
+      <c r="A5" s="38" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="38" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="38" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>4207</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="38" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="38" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>4214</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="38" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>4217</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="38" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>4220</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="38" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA0A98-7E08-415D-BF69-0D47930FC3BF}">
   <dimension ref="A1:A352"/>
   <sheetViews>
@@ -20896,7 +23502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F727BE-F8A1-4AFD-B685-B37E421567E9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -42803,7 +45409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0E549B-6558-4DC1-B942-43698E87D1E2}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -44240,7 +46846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BF18C4-B34D-485E-BC32-A727002EE89B}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -47506,480 +50112,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45643D14-903F-4797-8D1B-1738C0CE35BC}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:H106"/>
-  <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="31.2">
-      <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="23.4">
-      <c r="A3" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="23.4">
-      <c r="A10" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="23.4">
-      <c r="A17" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="23.4">
-      <c r="A31" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="23.4">
-      <c r="A44" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="18">
-      <c r="A47" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="18">
-      <c r="A54" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="23.4">
-      <c r="A62" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="23.4">
-      <c r="A67" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>3045</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>3586</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>3588</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="B101" t="s">
-        <v>3594</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>3589</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>3595</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>3590</v>
-      </c>
-      <c r="D104" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="B105" t="s">
-        <v>3592</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="H106" t="s">
-        <v>3591</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>